--- a/Assignment3_UnionFind_Weighted Path Compression by Height/Data Analysis.xlsx
+++ b/Assignment3_UnionFind_Weighted Path Compression by Height/Data Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuzigeng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuzigeng/Documents/GitHub/INFO6205/Zigeng/Assignment3_UnionFind_Weighted Path Compression by Height/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,23 +29,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Initial Sites Count (n)</t>
-  </si>
-  <si>
     <t>1/2(N*lnN)</t>
   </si>
   <si>
-    <t>Count of Pairs to be Unioned</t>
+    <t>Count of Pairs to be United</t>
+  </si>
+  <si>
+    <t>Initial Sites Count (N)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,8 +99,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -93,7 +113,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -278,8 +302,17 @@
               <a:rPr lang="en-US" b="1">
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t>Unioned</a:t>
-            </a:r>
+              <a:t>Uni</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>ted</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
@@ -350,7 +383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Count of Pairs to be Unioned</c:v>
+                  <c:v>Count of Pairs to be United</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -385,7 +418,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Initial Sites Count (n)</c:v>
+                  <c:v>Initial Sites Count (N)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -543,7 +576,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Initial Sites Count (n)</c:v>
+                  <c:v>Initial Sites Count (N)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -635,82 +668,16 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="237167376"/>
-        <c:axId val="237293696"/>
+        <c:axId val="242298944"/>
+        <c:axId val="197932064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237167376"/>
+        <c:axId val="242298944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Initial</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sites</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -745,7 +712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237293696"/>
+        <c:crossAx val="197932064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,7 +720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237293696"/>
+        <c:axId val="197932064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,8 +798,13 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Unioned</a:t>
+                  <a:t>Uni</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ted</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -890,7 +862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237167376"/>
+        <c:crossAx val="242298944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1832,13 +1804,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
